--- a/config_hlw/gift_czlb_config.xlsx
+++ b/config_hlw/gift_czlb_config.xlsx
@@ -74,22 +74,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>10257,10258,10259,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10260,10261,10262,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10266,10267,10268,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10263,10264,10265,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>pay_name|</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -147,6 +131,22 @@
   </si>
   <si>
     <t>"198万金币","锁定*4","最高33万金币","198万金币","锁定*5","最高40万金币","198万金币","锁定*6","最高50万金币",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10851,10852,10853,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10854,10855,10856,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10857,10858,10859,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10860,10861,10862,</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,13 +588,13 @@
         <v>12</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -608,16 +608,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -631,16 +631,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -654,16 +654,16 @@
         <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -677,16 +677,16 @@
         <v>11</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
